--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/husnitdin/Documents/Automation/a1qa-demo/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24DA5C9-CC1D-C540-B48B-EAC5EF13F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF22E6-4D85-8240-83DD-8FEA62A02271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{267FFE0E-3AF7-7341-8331-1B665615E5C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>pass</t>
+    <t>spoon</t>
   </si>
   <si>
-    <t>#adsjd&amp;^$aq</t>
-  </si>
-  <si>
-    <t>husnitdin@yahoo.com</t>
-  </si>
-  <si>
-    <t>login</t>
+    <t>necklace</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -424,22 +418,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C3E10383-79BA-9149-A128-DCAA9C26E2D5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/husnitdin/Documents/Automation/a1qa-demo/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF22E6-4D85-8240-83DD-8FEA62A02271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE5307-1D22-EE46-B265-D0ABAB3DC50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{267FFE0E-3AF7-7341-8331-1B665615E5C5}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>spoon</t>
   </si>
   <si>
     <t>necklace</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>earings</t>
+  </si>
+  <si>
+    <t>iphone</t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE2552-28F8-C54A-946D-F112AB1F7D1F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -426,6 +435,21 @@
       </c>
       <c r="B2" s="2"/>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
